--- a/Output_testing/R1_201907/Country/HKD/MN/SWEDEN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SWEDEN_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1753.623603</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>24.65883697596642</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1497.740117</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>22.19879739797887</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1771.732561</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>26.79011831853554</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1090.920235</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>31.33445616010372</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>17.24951322793629</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>546.467624</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.684235105986832</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>510.52597</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.56677506718386</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>564.024421</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.528533767311343</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>357.526156</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.26920878525313</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>20.8161700048616</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>303.502999</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.267752191094282</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>436.459566</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.468997770755303</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>595.097205</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.998380954279815</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>290.777165</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.351980316005182</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-6.343927339082256</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>674.678987</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>9.487098099661679</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>642.080605</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>9.516615801222274</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>487.956953</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.378328305849817</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>242.026694</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.951722581915294</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-21.49791930154814</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>512.220915</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>7.202669955546528</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>395.550823</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.862667682273746</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>263.382231</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.982565589643673</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>125.718146</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.610997035330012</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-29.33346489539197</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>169.453782</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.382799352238733</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>192.41209</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.851841220215961</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>248.787474</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.761880326265328</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>115.36158</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.313525824434175</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-17.94275692285911</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>155.344612</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.184401176996907</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>170.707752</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.530149762231696</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>127.668552</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.930458179142821</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>97.092083</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.78877182826905</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>25.24567827187221</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>250.195768</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.518164698875073</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>269.21539</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.990183497921133</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>222.459988</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.363786121476602</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>94.197772</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.705638654794451</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-33.52426012586371</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>109.271265</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.536534011736055</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>95.75282199999999</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.419203152627268</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>145.209569</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.195693424688124</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>93.483991</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.685136753065206</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>45.09890393229801</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>59.160659</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8318963334982785</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>279.778084</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>4.14673876503417</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>391.357892</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>5.917667520686636</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>92.58762400000001</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.65939044131505</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-73.47564974515701</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>2577.622008</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>36.24561209839921</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>2256.719375</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>33.44802988255572</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1795.704028</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>27.15258749212029</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>881.844118</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>25.32917161951473</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-18.33910406742028</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,467 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>4.178633</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>24.05031475354809</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>3.669096</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>27.21474901411236</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>6.253108</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>41.48986448581357</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>5.516719</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>37.76879459513822</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-4.411138636206513</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>1.470570799375132</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.770825</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>18.9697391301014</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>2.091254</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>12.03630874729043</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.161596</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>8.615894377197234</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.344963</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>15.55901434842431</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.746212</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>11.95499033892528</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>96.05226078296865</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.593307</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.414805773917776</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.106284</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>8.205629233557334</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.447397</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>9.603593187127601</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.469365</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>10.05962871596057</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>36.26592426832062</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.068855</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>6.151844197828249</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.537353</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>11.40299301002009</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1.404277</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>9.317488588162051</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.382371</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>9.464046719304685</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>33.90228144285059</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.001374</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>5.763454193277914</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.077959</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>7.995534494737544</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.92381</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>6.129552169999212</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.346121429196882</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>64.73691129034975</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.290858</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>7.429592692666617</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.064223</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>7.893650599506172</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>0.536054</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.556760544848787</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.181534548226403</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>7.158302534629635</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.68781</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>3.958722144452004</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.831802639561318</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.778460623228973</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.892335583898542</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>533.099704528276</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.597414631726205</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0.54554</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>4.046428378314128</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.015889554070286</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.211784874911966</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-21.67691061875241</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.67466</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>3.883036713592401</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>3.173042482602561</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.51569</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>3.421643799641586</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.193840874024145</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-53.86689101063254</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>5.081001</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>29.24393535232518</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>2.510388</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>18.62027577039126</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>1.224964</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>8.127732698683621</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.95718319031191</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>18.90188869155807</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1760,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1753.623603</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>24.71922969811688</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1497.740117</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>22.24324474737725</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1771.732561</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>26.85131048998209</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1090.920235</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>31.46647166811573</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>17.24951322793629</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>546.467624</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.703054804423824</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>510.52597</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>7.581925576880422</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>564.024421</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.548014065765862</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>357.526156</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.3124740906326</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>20.8161700048616</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>303.438158</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.277290470967436</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>436.459566</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.481950265389101</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>595.097205</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>9.018934445815336</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>290.777165</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.387168127106483</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-6.343927339082256</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>674.647881</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>9.509894772890339</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>642.050035</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>9.535216361282208</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>487.956953</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.395181382992373</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>241.980094</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.979666824219263</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-21.51303415065874</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>512.220915</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>7.220310237843326</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>395.550823</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.874406157750997</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>263.382231</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.991662295879196</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>125.718146</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.626210562752131</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-29.33346489539197</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>168.779122</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.379125074404289</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>191.9843</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.851198097776463</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>248.271784</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.762657471465733</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>115.187201</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.322456290121021</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-17.84590845814791</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ROTATING ELECTRIC PLANT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>155.344612</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.189751061643781</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>170.707752</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.535215732630722</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>127.668552</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.934867600798371</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>97.092083</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.800521230516768</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>25.24567827187221</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>250.195768</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.526781145114846</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>269.21539</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.998172808193945</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>222.459988</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.371469453614501</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>94.197772</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.717037807844517</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-33.52426012586371</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>109.271265</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.540297184822278</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>95.75282199999999</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.422044739820539</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>145.209569</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.200708678704177</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>93.483991</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.696449529349766</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>45.09890393229801</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>59.160659</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8339337566004268</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>279.778084</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>4.155041536731615</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>391.357892</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>5.931184255520875</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>92.58762400000001</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.670594745558232</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-73.47564974515701</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>2561.018069</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>36.10033179317257</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>2243.695722</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>33.32158397616674</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1781.148307</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>26.99400985946148</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>867.458544</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>25.02094912378349</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-18.92976266060805</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2218,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>72.15057299999999</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>2.056673149124476</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>303.519902</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>11.8372341404304</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>237.420633</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>11.36139032726912</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>254.69263</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>22.51890688906486</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>78.48093514775188</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>100.044423</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.851795487525112</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>168.302678</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.563781132044067</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>130.412007</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.240661126067979</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>79.905062</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.064887001806667</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>4.171701530556904</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>176.878108</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.041962111534987</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>203.136251</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.922285654586955</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>129.376677</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.1911170401185</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>67.48389</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.966656496585297</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-15.45068993985731</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>101.251128</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.886192965871046</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>108.98354</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.250342965757026</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>119.358864</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.711730382436601</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>38.725372</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.423942994787087</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-44.26121661892465</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>617.697196</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>17.60763892065942</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>154.943576</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.042778004282474</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>89.747045</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.294703438702339</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>31.568685</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.791177263846302</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-34.73468305784034</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OTHER NON-ELECTRICAL MACHINERY, TOOLS AND MECHANICAL APPARATUS, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>50.805904</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.448237127289285</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>23.607444</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.9206870463640924</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>40.485433</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.937366609925187</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>28.776558</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.544308526673012</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>108.037843414652</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>34.859171</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.9936708471662259</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>37.813114</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.47470620887584</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>39.204188</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.876054649098842</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>28.581315</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.527045919043801</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>25.42618475445093</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>98.718</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.813985412635185</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>137.680118</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.369505533275</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>127.798908</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>6.115615390456631</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>27.051378</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.391774989338709</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-73.64529055931499</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>13.07858</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.3728087414451496</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>9.399963</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.3665972551031679</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>32.421476</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.551478652751245</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>25.033097</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.213326630173512</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-9.897212745343143</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>103.634798</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.954140175179745</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>50.824574</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.982151346785922</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>45.107947</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.158569734454241</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>24.972791</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.207994614092591</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>14.62336593897302</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>2139.00265</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>60.97289506156937</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1365.90051</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>53.26993071249506</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1098.381427</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>52.56131264871932</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>524.2260659999999</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>46.34997867458816</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-18.80590790818378</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
